--- a/IS212_Schedule.xlsx
+++ b/IS212_Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4B3C5EB-D21F-4896-89C7-F08C720A5F8F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{12776986-15FF-45F8-86EA-FAA3F6591EFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Iteration No</t>
   </si>
@@ -55,13 +55,16 @@
     <t>Location</t>
   </si>
   <si>
-    <t>SIS GSR 2.1</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
     <t>Done By (Use Initials. Leader in bold)</t>
+  </si>
+  <si>
+    <t>Read Project Wiki as a Team, Schedule tasks for iteration 1, Plan subsequent iterations</t>
+  </si>
+  <si>
+    <t>SIS Project Way</t>
   </si>
   <si>
     <r>
@@ -73,7 +76,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>RB</t>
+      <t>BX</t>
     </r>
     <r>
       <rPr>
@@ -83,11 +86,49 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, SJ, SD, HS, LF</t>
+      <t>, XB, TT, CL</t>
     </r>
   </si>
   <si>
-    <t>Read Project Wiki as a Team</t>
+    <t>Create Login Page with Welcome Message</t>
+  </si>
+  <si>
+    <t>Create users database and complete authentication for login</t>
+  </si>
+  <si>
+    <t>Create add bid functionality</t>
+  </si>
+  <si>
+    <t>Meet and test login functionality</t>
+  </si>
+  <si>
+    <t>Learn about metrics and brainstorm for metrics</t>
+  </si>
+  <si>
+    <t>Meet to confirm metrics and test add bid functionality</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, TT</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -430,16 +471,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="11.41796875" customWidth="1"/>
-    <col min="3" max="3" width="34.7890625" customWidth="1"/>
+    <col min="3" max="3" width="68.83984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.89453125" style="4" customWidth="1"/>
     <col min="5" max="5" width="18.3125" style="4" customWidth="1"/>
     <col min="7" max="7" width="18.89453125" style="4" customWidth="1"/>
@@ -485,7 +526,7 @@
         <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -496,34 +537,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3">
-        <v>43707.5</v>
+        <v>43721.541666666664</v>
       </c>
       <c r="E2" s="3">
-        <v>43707.583333333336</v>
+        <v>43721.625</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" s="3">
-        <v>43707.520833333336</v>
+        <v>43721.541666666664</v>
       </c>
       <c r="H2" s="3">
-        <v>43707.583333333336</v>
+        <v>43721.583333333336</v>
       </c>
       <c r="I2" s="6">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
-        <v>12</v>
-      </c>
       <c r="L2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -533,6 +574,12 @@
       <c r="B3">
         <v>2</v>
       </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
@@ -541,6 +588,9 @@
       <c r="B4">
         <v>3</v>
       </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
@@ -549,13 +599,41 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/IS212_Schedule.xlsx
+++ b/IS212_Schedule.xlsx
@@ -3,17 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{12776986-15FF-45F8-86EA-FAA3F6591EFC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D10ED7-FD0B-4391-9A89-4B7896688565}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Schedule" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -474,7 +480,7 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -577,6 +583,15 @@
       <c r="C3" t="s">
         <v>16</v>
       </c>
+      <c r="D3" s="3">
+        <v>43722.416666666664</v>
+      </c>
+      <c r="E3" s="3">
+        <v>43723.375</v>
+      </c>
+      <c r="F3">
+        <v>23</v>
+      </c>
       <c r="L3" t="s">
         <v>22</v>
       </c>
@@ -591,6 +606,15 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="D4" s="3">
+        <v>43723.541666608799</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43725.416666666664</v>
+      </c>
+      <c r="F4">
+        <v>45</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
@@ -602,6 +626,15 @@
       <c r="C5" t="s">
         <v>19</v>
       </c>
+      <c r="D5" s="3">
+        <v>43725.625</v>
+      </c>
+      <c r="E5" s="3">
+        <v>43725.666666666664</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
@@ -613,6 +646,15 @@
       <c r="C6" t="s">
         <v>18</v>
       </c>
+      <c r="D6" s="3">
+        <v>43723.416666666664</v>
+      </c>
+      <c r="E6" s="3">
+        <v>43727.999305555553</v>
+      </c>
+      <c r="F6">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
@@ -624,6 +666,15 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" s="3">
+        <v>43727.5</v>
+      </c>
+      <c r="E7" s="3">
+        <v>43727.625</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
@@ -634,6 +685,15 @@
       </c>
       <c r="C8" t="s">
         <v>21</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43728.541666666664</v>
+      </c>
+      <c r="E8" s="3">
+        <v>43728.625</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/IS212_Schedule.xlsx
+++ b/IS212_Schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1D10ED7-FD0B-4391-9A89-4B7896688565}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B7C9BF4-A99E-4A56-AF2D-34255A49966E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -635,6 +635,12 @@
       <c r="F5">
         <v>1</v>
       </c>
+      <c r="G5" s="4">
+        <v>43725.854166666664</v>
+      </c>
+      <c r="H5" s="4">
+        <v>43725.895833333336</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
